--- a/UNEARM - Y2 Timetable 11.2 - 27.3.26 (doe 11.2.26).xlsx
+++ b/UNEARM - Y2 Timetable 11.2 - 27.3.26 (doe 11.2.26).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myune-my.sharepoint.com/personal/jsmit263_une_edu_au/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudesh/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E4B164-ECED-4D73-A0AB-199E3F8D669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEBBBFF-F227-3641-A435-746218CF2211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F923EA6C-818D-4951-B748-EA58E8DF1060}"/>
+    <workbookView xWindow="14160" yWindow="940" windowWidth="29040" windowHeight="15720" xr2:uid="{F923EA6C-818D-4951-B748-EA58E8DF1060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="274">
   <si>
     <t>Week</t>
   </si>
@@ -939,9 +939,6 @@
     <t>Open Working Problem 35</t>
   </si>
   <si>
-    <t>19/03/2026</t>
-  </si>
-  <si>
     <t>Overview of Skin Pathologies</t>
   </si>
   <si>
@@ -1194,9 +1191,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1670,553 +1674,550 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="16" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="20" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 5" xfId="2" xr:uid="{E2AFC8AD-A95F-49CE-8092-A517AE67599C}"/>
     <cellStyle name="Normal 6" xfId="3" xr:uid="{AF40B72C-DD02-44C9-BFFB-1E5914095880}"/>
-    <cellStyle name="Normal_Sheet1" xfId="4" xr:uid="{C82801FC-F3B4-4E7F-8DF9-67145AFA8B6A}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2274,10 +2275,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2582,29 +2579,29 @@
   </sheetPr>
   <dimension ref="A1:M283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C186" workbookViewId="0">
-      <selection activeCell="D263" sqref="D263"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H222" sqref="H222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="137" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="137" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="47.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="24.33203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="4"/>
+    <col min="6" max="6" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="47.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2642,8 +2639,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="232" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -2678,8 +2675,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="157"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="233"/>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
@@ -2694,7 +2691,7 @@
       <c r="K3" s="33"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="143" t="s">
         <v>78</v>
       </c>
@@ -2733,7 +2730,7 @@
       </c>
       <c r="M4" s="147"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="132" t="s">
         <v>78</v>
       </c>
@@ -2771,7 +2768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="132" t="s">
         <v>78</v>
       </c>
@@ -2809,7 +2806,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="132" t="s">
         <v>78</v>
       </c>
@@ -2847,7 +2844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="132" t="s">
         <v>78</v>
       </c>
@@ -2885,7 +2882,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="132" t="s">
         <v>78</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="132" t="s">
         <v>78</v>
       </c>
@@ -2961,7 +2958,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="132" t="s">
         <v>78</v>
       </c>
@@ -2999,7 +2996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="132" t="s">
         <v>78</v>
       </c>
@@ -3037,7 +3034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="132" t="s">
         <v>78</v>
       </c>
@@ -3075,7 +3072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="133" t="s">
         <v>78</v>
       </c>
@@ -3113,7 +3110,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="134" t="s">
         <v>78</v>
       </c>
@@ -3151,7 +3148,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="134" t="s">
         <v>78</v>
       </c>
@@ -3184,11 +3181,11 @@
       <c r="L16" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="M16" s="159" t="s">
+      <c r="M16" s="150" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="134" t="s">
         <v>78</v>
       </c>
@@ -3226,7 +3223,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="133" t="s">
         <v>78</v>
       </c>
@@ -3259,11 +3256,11 @@
       <c r="L18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="160" t="s">
+      <c r="M18" s="151" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="133" t="s">
         <v>78</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="132" t="s">
         <v>78</v>
       </c>
@@ -3333,11 +3330,11 @@
       <c r="K20" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="150" t="s">
+      <c r="L20" s="214" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="132" t="s">
         <v>78</v>
       </c>
@@ -3371,9 +3368,9 @@
       <c r="K21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="151"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="215"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="132" t="s">
         <v>78</v>
       </c>
@@ -3407,9 +3404,9 @@
       <c r="K22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="151"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L22" s="215"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="132" t="s">
         <v>78</v>
       </c>
@@ -3443,9 +3440,9 @@
       <c r="K23" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="151"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L23" s="215"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="132" t="s">
         <v>78</v>
       </c>
@@ -3479,9 +3476,9 @@
       <c r="K24" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="151"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="215"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="132" t="s">
         <v>78</v>
       </c>
@@ -3515,9 +3512,9 @@
       <c r="K25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="151"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="215"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="132" t="s">
         <v>78</v>
       </c>
@@ -3551,9 +3548,9 @@
       <c r="K26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="151"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="215"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="132" t="s">
         <v>78</v>
       </c>
@@ -3587,9 +3584,9 @@
       <c r="K27" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="151"/>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="215"/>
+    </row>
+    <row r="28" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="132" t="s">
         <v>78</v>
       </c>
@@ -3623,9 +3620,9 @@
       <c r="K28" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="158"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="228"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="135" t="s">
         <v>112</v>
       </c>
@@ -3663,7 +3660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="132" t="s">
         <v>112</v>
       </c>
@@ -3701,7 +3698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
         <v>112</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="132" t="s">
         <v>112</v>
       </c>
@@ -3777,7 +3774,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="132" t="s">
         <v>112</v>
       </c>
@@ -3815,7 +3812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="132" t="s">
         <v>112</v>
       </c>
@@ -3853,7 +3850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="132" t="s">
         <v>112</v>
       </c>
@@ -3891,7 +3888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="132" t="s">
         <v>112</v>
       </c>
@@ -3929,7 +3926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
         <v>112</v>
       </c>
@@ -3967,7 +3964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="133" t="s">
         <v>112</v>
       </c>
@@ -3983,7 +3980,7 @@
       <c r="E38" s="46">
         <v>1.5</v>
       </c>
-      <c r="F38" s="161" t="s">
+      <c r="F38" s="152" t="s">
         <v>192</v>
       </c>
       <c r="G38" s="10" t="s">
@@ -4004,11 +4001,11 @@
       <c r="L38" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M38" s="164" t="s">
+      <c r="M38" s="234" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="133" t="s">
         <v>112</v>
       </c>
@@ -4024,7 +4021,7 @@
       <c r="E39" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="162" t="s">
+      <c r="F39" s="153" t="s">
         <v>193</v>
       </c>
       <c r="G39" s="47" t="s">
@@ -4045,9 +4042,9 @@
       <c r="L39" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M39" s="164"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="234"/>
+    </row>
+    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="133" t="s">
         <v>112</v>
       </c>
@@ -4063,7 +4060,7 @@
       <c r="E40" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="F40" s="162" t="s">
+      <c r="F40" s="153" t="s">
         <v>194</v>
       </c>
       <c r="G40" s="47" t="s">
@@ -4084,9 +4081,9 @@
       <c r="L40" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="164"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="234"/>
+    </row>
+    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="133" t="s">
         <v>112</v>
       </c>
@@ -4124,7 +4121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="134" t="s">
         <v>112</v>
       </c>
@@ -4162,7 +4159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="133" t="s">
         <v>112</v>
       </c>
@@ -4200,7 +4197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="134" t="s">
         <v>112</v>
       </c>
@@ -4238,7 +4235,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="134" t="s">
         <v>112</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="s">
         <v>112</v>
       </c>
@@ -4314,7 +4311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="133" t="s">
         <v>112</v>
       </c>
@@ -4352,7 +4349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="s">
         <v>112</v>
       </c>
@@ -4390,7 +4387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
         <v>112</v>
       </c>
@@ -4428,7 +4425,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="s">
         <v>112</v>
       </c>
@@ -4465,9 +4462,9 @@
       <c r="L50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M50" s="153"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="229"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
         <v>112</v>
       </c>
@@ -4504,9 +4501,9 @@
       <c r="L51" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M51" s="153"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="229"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
         <v>112</v>
       </c>
@@ -4543,9 +4540,9 @@
       <c r="L52" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="M52" s="153"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="229"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
         <v>112</v>
       </c>
@@ -4582,9 +4579,9 @@
       <c r="L53" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M53" s="153"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="229"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="s">
         <v>112</v>
       </c>
@@ -4621,9 +4618,9 @@
       <c r="L54" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M54" s="153"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="229"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
         <v>112</v>
       </c>
@@ -4660,9 +4657,9 @@
       <c r="L55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M55" s="153"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="229"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
         <v>112</v>
       </c>
@@ -4699,9 +4696,9 @@
       <c r="L56" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="M56" s="153"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M56" s="229"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
         <v>112</v>
       </c>
@@ -4738,9 +4735,9 @@
       <c r="L57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M57" s="153"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M57" s="229"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
         <v>112</v>
       </c>
@@ -4778,7 +4775,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
         <v>112</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="136" t="s">
         <v>112</v>
       </c>
@@ -4854,7 +4851,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="141" t="s">
         <v>112</v>
       </c>
@@ -4890,7 +4887,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="141" t="s">
         <v>112</v>
       </c>
@@ -4926,7 +4923,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="s">
         <v>112</v>
       </c>
@@ -4962,8 +4959,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="201"/>
+    <row r="64" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="189"/>
       <c r="B64" s="96"/>
       <c r="C64" s="97"/>
       <c r="D64" s="98" t="s">
@@ -4992,7 +4989,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="136" t="s">
         <v>112</v>
       </c>
@@ -5008,7 +5005,7 @@
       <c r="E65" s="75">
         <v>1.5</v>
       </c>
-      <c r="F65" s="162" t="s">
+      <c r="F65" s="153" t="s">
         <v>144</v>
       </c>
       <c r="G65" s="10" t="s">
@@ -5029,11 +5026,11 @@
       <c r="L65" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="M65" s="164" t="s">
+      <c r="M65" s="234" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="136" t="s">
         <v>112</v>
       </c>
@@ -5049,7 +5046,7 @@
       <c r="E66" s="75">
         <v>1.5</v>
       </c>
-      <c r="F66" s="162" t="s">
+      <c r="F66" s="153" t="s">
         <v>146</v>
       </c>
       <c r="G66" s="10" t="s">
@@ -5070,9 +5067,9 @@
       <c r="L66" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="M66" s="164"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="234"/>
+    </row>
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="132" t="s">
         <v>112</v>
       </c>
@@ -5106,12 +5103,12 @@
       <c r="K67" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="L67" s="150" t="s">
+      <c r="L67" s="214" t="s">
         <v>72</v>
       </c>
-      <c r="M67" s="165"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M67" s="154"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="132" t="s">
         <v>112</v>
       </c>
@@ -5145,9 +5142,9 @@
       <c r="K68" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L68" s="151"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L68" s="215"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="132" t="s">
         <v>112</v>
       </c>
@@ -5181,9 +5178,9 @@
       <c r="K69" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L69" s="151"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L69" s="215"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="132" t="s">
         <v>112</v>
       </c>
@@ -5217,9 +5214,9 @@
       <c r="K70" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L70" s="151"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L70" s="215"/>
+    </row>
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="134" t="s">
         <v>112</v>
       </c>
@@ -5253,9 +5250,9 @@
       <c r="K71" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L71" s="151"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L71" s="215"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="132" t="s">
         <v>112</v>
       </c>
@@ -5289,9 +5286,9 @@
       <c r="K72" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L72" s="151"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L72" s="215"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="132" t="s">
         <v>112</v>
       </c>
@@ -5325,9 +5322,9 @@
       <c r="K73" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L73" s="151"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L73" s="215"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="132" t="s">
         <v>112</v>
       </c>
@@ -5361,9 +5358,9 @@
       <c r="K74" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="L74" s="151"/>
-    </row>
-    <row r="75" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="215"/>
+    </row>
+    <row r="75" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="135" t="s">
         <v>112</v>
       </c>
@@ -5397,9 +5394,9 @@
       <c r="K75" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="L75" s="158"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L75" s="228"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="135" t="s">
         <v>152</v>
       </c>
@@ -5437,7 +5434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="135" t="s">
         <v>152</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="135" t="s">
         <v>152</v>
       </c>
@@ -5513,7 +5510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="135" t="s">
         <v>152</v>
       </c>
@@ -5551,7 +5548,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="135" t="s">
         <v>152</v>
       </c>
@@ -5589,7 +5586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="135" t="s">
         <v>152</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="135" t="s">
         <v>152</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="135" t="s">
         <v>152</v>
       </c>
@@ -5703,7 +5700,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="135" t="s">
         <v>152</v>
       </c>
@@ -5741,7 +5738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="135" t="s">
         <v>152</v>
       </c>
@@ -5779,7 +5776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="135" t="s">
         <v>152</v>
       </c>
@@ -5817,7 +5814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="135" t="s">
         <v>152</v>
       </c>
@@ -5855,7 +5852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="135" t="s">
         <v>152</v>
       </c>
@@ -5893,7 +5890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="135" t="s">
         <v>152</v>
       </c>
@@ -5931,7 +5928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="135" t="s">
         <v>152</v>
       </c>
@@ -5947,7 +5944,7 @@
       <c r="E90" s="107">
         <v>1.5</v>
       </c>
-      <c r="F90" s="166" t="s">
+      <c r="F90" s="155" t="s">
         <v>198</v>
       </c>
       <c r="G90" s="105" t="s">
@@ -5969,7 +5966,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="135" t="s">
         <v>152</v>
       </c>
@@ -5985,7 +5982,7 @@
       <c r="E91" s="109">
         <v>1.5</v>
       </c>
-      <c r="F91" s="166" t="s">
+      <c r="F91" s="155" t="s">
         <v>197</v>
       </c>
       <c r="G91" s="105" t="s">
@@ -6007,7 +6004,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="135" t="s">
         <v>152</v>
       </c>
@@ -6045,7 +6042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="135" t="s">
         <v>152</v>
       </c>
@@ -6083,7 +6080,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="135" t="s">
         <v>152</v>
       </c>
@@ -6121,7 +6118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="135" t="s">
         <v>152</v>
       </c>
@@ -6159,7 +6156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="135" t="s">
         <v>152</v>
       </c>
@@ -6197,7 +6194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="135" t="s">
         <v>152</v>
       </c>
@@ -6235,7 +6232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="135" t="s">
         <v>152</v>
       </c>
@@ -6273,7 +6270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="135" t="s">
         <v>152</v>
       </c>
@@ -6311,7 +6308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="135" t="s">
         <v>152</v>
       </c>
@@ -6349,7 +6346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="135" t="s">
         <v>152</v>
       </c>
@@ -6387,7 +6384,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="135" t="s">
         <v>152</v>
       </c>
@@ -6425,7 +6422,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="135" t="s">
         <v>152</v>
       </c>
@@ -6461,7 +6458,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="135" t="s">
         <v>152</v>
       </c>
@@ -6497,7 +6494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="135" t="s">
         <v>152</v>
       </c>
@@ -6533,7 +6530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="135" t="s">
         <v>152</v>
       </c>
@@ -6549,7 +6546,7 @@
       <c r="E106" s="118">
         <v>1.5</v>
       </c>
-      <c r="F106" s="166" t="s">
+      <c r="F106" s="155" t="s">
         <v>204</v>
       </c>
       <c r="G106" s="119" t="s">
@@ -6571,7 +6568,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="135" t="s">
         <v>152</v>
       </c>
@@ -6587,7 +6584,7 @@
       <c r="E107" s="118">
         <v>1.5</v>
       </c>
-      <c r="F107" s="166" t="s">
+      <c r="F107" s="155" t="s">
         <v>205</v>
       </c>
       <c r="G107" s="119" t="s">
@@ -6609,7 +6606,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="135" t="s">
         <v>152</v>
       </c>
@@ -6647,7 +6644,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="135" t="s">
         <v>152</v>
       </c>
@@ -6685,7 +6682,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="135" t="s">
         <v>152</v>
       </c>
@@ -6719,11 +6716,11 @@
       <c r="K110" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="L110" s="150" t="s">
+      <c r="L110" s="214" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="135" t="s">
         <v>152</v>
       </c>
@@ -6757,9 +6754,9 @@
       <c r="K111" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L111" s="151"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L111" s="215"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="135" t="s">
         <v>152</v>
       </c>
@@ -6793,9 +6790,9 @@
       <c r="K112" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L112" s="151"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L112" s="215"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="135" t="s">
         <v>152</v>
       </c>
@@ -6829,9 +6826,9 @@
       <c r="K113" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L113" s="151"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L113" s="215"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="135" t="s">
         <v>152</v>
       </c>
@@ -6865,9 +6862,9 @@
       <c r="K114" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L114" s="151"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L114" s="215"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="135" t="s">
         <v>152</v>
       </c>
@@ -6901,9 +6898,9 @@
       <c r="K115" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L115" s="151"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L115" s="215"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="135" t="s">
         <v>152</v>
       </c>
@@ -6937,9 +6934,9 @@
       <c r="K116" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L116" s="151"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L116" s="215"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="135" t="s">
         <v>152</v>
       </c>
@@ -6973,9 +6970,9 @@
       <c r="K117" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L117" s="151"/>
-    </row>
-    <row r="118" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L117" s="215"/>
+    </row>
+    <row r="118" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="135" t="s">
         <v>152</v>
       </c>
@@ -7009,9 +7006,9 @@
       <c r="K118" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L118" s="152"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L118" s="217"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="132" t="s">
         <v>174</v>
       </c>
@@ -7049,7 +7046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="132" t="s">
         <v>174</v>
       </c>
@@ -7087,7 +7084,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="132" t="s">
         <v>174</v>
       </c>
@@ -7125,7 +7122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="132" t="s">
         <v>174</v>
       </c>
@@ -7163,7 +7160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="132" t="s">
         <v>174</v>
       </c>
@@ -7201,7 +7198,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="132" t="s">
         <v>174</v>
       </c>
@@ -7239,7 +7236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="132" t="s">
         <v>174</v>
       </c>
@@ -7277,7 +7274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="132" t="s">
         <v>174</v>
       </c>
@@ -7315,7 +7312,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="132" t="s">
         <v>174</v>
       </c>
@@ -7353,7 +7350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="132" t="s">
         <v>174</v>
       </c>
@@ -7369,7 +7366,7 @@
       <c r="E128" s="107">
         <v>1.5</v>
       </c>
-      <c r="F128" s="166" t="s">
+      <c r="F128" s="155" t="s">
         <v>200</v>
       </c>
       <c r="G128" s="105" t="s">
@@ -7391,7 +7388,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="132" t="s">
         <v>174</v>
       </c>
@@ -7429,7 +7426,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="132" t="s">
         <v>174</v>
       </c>
@@ -7467,7 +7464,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="132" t="s">
         <v>174</v>
       </c>
@@ -7505,7 +7502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="132" t="s">
         <v>174</v>
       </c>
@@ -7543,7 +7540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="132" t="s">
         <v>174</v>
       </c>
@@ -7581,7 +7578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="132" t="s">
         <v>174</v>
       </c>
@@ -7619,7 +7616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="132" t="s">
         <v>174</v>
       </c>
@@ -7635,7 +7632,7 @@
       <c r="E135" s="107">
         <v>1.5</v>
       </c>
-      <c r="F135" s="166" t="s">
+      <c r="F135" s="155" t="s">
         <v>199</v>
       </c>
       <c r="G135" s="105" t="s">
@@ -7657,8 +7654,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="154" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" s="230" t="s">
         <v>174</v>
       </c>
       <c r="B136" s="25" t="s">
@@ -7693,8 +7690,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="155"/>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="231"/>
       <c r="B137" s="30"/>
       <c r="C137" s="31"/>
       <c r="D137" s="32"/>
@@ -7709,7 +7706,7 @@
       <c r="K137" s="33"/>
       <c r="L137" s="30"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="132" t="s">
         <v>174</v>
       </c>
@@ -7747,7 +7744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="132" t="s">
         <v>174</v>
       </c>
@@ -7785,7 +7782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="132" t="s">
         <v>174</v>
       </c>
@@ -7823,7 +7820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="132" t="s">
         <v>174</v>
       </c>
@@ -7861,7 +7858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="132" t="s">
         <v>174</v>
       </c>
@@ -7899,7 +7896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="132" t="s">
         <v>174</v>
       </c>
@@ -7937,7 +7934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="132" t="s">
         <v>174</v>
       </c>
@@ -7975,7 +7972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="132" t="s">
         <v>174</v>
       </c>
@@ -8013,7 +8010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="132" t="s">
         <v>174</v>
       </c>
@@ -8051,7 +8048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="132" t="s">
         <v>174</v>
       </c>
@@ -8089,7 +8086,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="132" t="s">
         <v>174</v>
       </c>
@@ -8127,7 +8124,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="132" t="s">
         <v>174</v>
       </c>
@@ -8163,7 +8160,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="132" t="s">
         <v>174</v>
       </c>
@@ -8179,7 +8176,7 @@
       <c r="E150" s="107">
         <v>1.5</v>
       </c>
-      <c r="F150" s="166" t="s">
+      <c r="F150" s="155" t="s">
         <v>201</v>
       </c>
       <c r="G150" s="119" t="s">
@@ -8201,7 +8198,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="132" t="s">
         <v>174</v>
       </c>
@@ -8217,7 +8214,7 @@
       <c r="E151" s="107">
         <v>1.5</v>
       </c>
-      <c r="F151" s="166" t="s">
+      <c r="F151" s="155" t="s">
         <v>202</v>
       </c>
       <c r="G151" s="105" t="s">
@@ -8239,7 +8236,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="132" t="s">
         <v>174</v>
       </c>
@@ -8255,7 +8252,7 @@
       <c r="E152" s="109">
         <v>1.5</v>
       </c>
-      <c r="F152" s="166" t="s">
+      <c r="F152" s="155" t="s">
         <v>203</v>
       </c>
       <c r="G152" s="119" t="s">
@@ -8277,7 +8274,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="132" t="s">
         <v>174</v>
       </c>
@@ -8315,7 +8312,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="132" t="s">
         <v>174</v>
       </c>
@@ -8353,7 +8350,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="132" t="s">
         <v>174</v>
       </c>
@@ -8387,11 +8384,11 @@
       <c r="K155" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="L155" s="150" t="s">
+      <c r="L155" s="214" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="132" t="s">
         <v>174</v>
       </c>
@@ -8425,9 +8422,9 @@
       <c r="K156" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L156" s="151"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L156" s="215"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="132" t="s">
         <v>174</v>
       </c>
@@ -8461,9 +8458,9 @@
       <c r="K157" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L157" s="151"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L157" s="215"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="132" t="s">
         <v>174</v>
       </c>
@@ -8497,9 +8494,9 @@
       <c r="K158" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L158" s="151"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L158" s="215"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="132" t="s">
         <v>174</v>
       </c>
@@ -8533,9 +8530,9 @@
       <c r="K159" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L159" s="151"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L159" s="215"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="132" t="s">
         <v>174</v>
       </c>
@@ -8569,9 +8566,9 @@
       <c r="K160" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L160" s="151"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L160" s="215"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="132" t="s">
         <v>174</v>
       </c>
@@ -8605,9 +8602,9 @@
       <c r="K161" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L161" s="151"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L161" s="215"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="132" t="s">
         <v>174</v>
       </c>
@@ -8641,46 +8638,46 @@
       <c r="K162" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L162" s="151"/>
-    </row>
-    <row r="163" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="196" t="s">
+      <c r="L162" s="215"/>
+    </row>
+    <row r="163" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="184" t="s">
         <v>174</v>
       </c>
-      <c r="B163" s="197" t="s">
+      <c r="B163" s="185" t="s">
         <v>46</v>
       </c>
       <c r="C163" s="121">
         <v>46087</v>
       </c>
-      <c r="D163" s="197" t="s">
+      <c r="D163" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="E163" s="198">
+      <c r="E163" s="186">
         <v>1.5</v>
       </c>
-      <c r="F163" s="199" t="s">
+      <c r="F163" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="G163" s="197" t="s">
+      <c r="G163" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="H163" s="199" t="s">
+      <c r="H163" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="I163" s="199" t="s">
-        <v>20</v>
-      </c>
-      <c r="J163" s="199" t="s">
+      <c r="I163" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="J163" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="K163" s="200" t="s">
-        <v>22</v>
-      </c>
-      <c r="L163" s="158"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A164" s="202" t="s">
+      <c r="K163" s="188" t="s">
+        <v>22</v>
+      </c>
+      <c r="L163" s="228"/>
+    </row>
+    <row r="164" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="190" t="s">
         <v>206</v>
       </c>
       <c r="B164" s="6" t="s">
@@ -8695,7 +8692,7 @@
       <c r="E164" s="63">
         <v>2</v>
       </c>
-      <c r="F164" s="167" t="s">
+      <c r="F164" s="156" t="s">
         <v>83</v>
       </c>
       <c r="G164" s="6" t="s">
@@ -8717,7 +8714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="134" t="s">
         <v>206</v>
       </c>
@@ -8755,7 +8752,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="134" t="s">
         <v>206</v>
       </c>
@@ -8793,7 +8790,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="134" t="s">
         <v>206</v>
       </c>
@@ -8831,7 +8828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="134" t="s">
         <v>206</v>
       </c>
@@ -8869,7 +8866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="134" t="s">
         <v>206</v>
       </c>
@@ -8907,7 +8904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="134" t="s">
         <v>206</v>
       </c>
@@ -8945,7 +8942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="134" t="s">
         <v>206</v>
       </c>
@@ -8983,7 +8980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="134" t="s">
         <v>206</v>
       </c>
@@ -9021,7 +9018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="134" t="s">
         <v>206</v>
       </c>
@@ -9043,7 +9040,7 @@
       <c r="G173" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H173" s="168" t="s">
+      <c r="H173" s="157" t="s">
         <v>208</v>
       </c>
       <c r="I173" s="11" t="s">
@@ -9059,7 +9056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="134" t="s">
         <v>206</v>
       </c>
@@ -9081,7 +9078,7 @@
       <c r="G174" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H174" s="168" t="s">
+      <c r="H174" s="157" t="s">
         <v>208</v>
       </c>
       <c r="I174" s="11" t="s">
@@ -9097,7 +9094,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A175" s="134" t="s">
         <v>206</v>
       </c>
@@ -9119,7 +9116,7 @@
       <c r="G175" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H175" s="168" t="s">
+      <c r="H175" s="157" t="s">
         <v>208</v>
       </c>
       <c r="I175" s="11" t="s">
@@ -9135,7 +9132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="134" t="s">
         <v>206</v>
       </c>
@@ -9157,7 +9154,7 @@
       <c r="G176" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H176" s="168" t="s">
+      <c r="H176" s="157" t="s">
         <v>208</v>
       </c>
       <c r="I176" s="11" t="s">
@@ -9173,7 +9170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A177" s="134" t="s">
         <v>206</v>
       </c>
@@ -9195,7 +9192,7 @@
       <c r="G177" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H177" s="168" t="s">
+      <c r="H177" s="157" t="s">
         <v>208</v>
       </c>
       <c r="I177" s="11" t="s">
@@ -9211,7 +9208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="134" t="s">
         <v>206</v>
       </c>
@@ -9221,19 +9218,19 @@
       <c r="C178" s="85">
         <v>46091</v>
       </c>
-      <c r="D178" s="169" t="s">
+      <c r="D178" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="E178" s="170" t="s">
+      <c r="E178" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="F178" s="171" t="s">
+      <c r="F178" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="G178" s="172" t="s">
+      <c r="G178" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="H178" s="169" t="s">
+      <c r="H178" s="158" t="s">
         <v>210</v>
       </c>
       <c r="I178" s="84" t="s">
@@ -9242,14 +9239,14 @@
       <c r="J178" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="K178" s="170" t="s">
-        <v>22</v>
-      </c>
-      <c r="L178" s="204" t="s">
+      <c r="K178" s="159" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178" s="191" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="134" t="s">
         <v>206</v>
       </c>
@@ -9287,7 +9284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="134" t="s">
         <v>206</v>
       </c>
@@ -9325,7 +9322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="134" t="s">
         <v>206</v>
       </c>
@@ -9363,7 +9360,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="134" t="s">
         <v>206</v>
       </c>
@@ -9401,7 +9398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="134" t="s">
         <v>206</v>
       </c>
@@ -9439,7 +9436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="134" t="s">
         <v>206</v>
       </c>
@@ -9477,7 +9474,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="134" t="s">
         <v>206</v>
       </c>
@@ -9515,7 +9512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="134" t="s">
         <v>206</v>
       </c>
@@ -9553,7 +9550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="134" t="s">
         <v>206</v>
       </c>
@@ -9591,43 +9588,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="B188" s="173" t="s">
+      <c r="B188" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="C188" s="174">
+      <c r="C188" s="163">
         <v>46092</v>
       </c>
-      <c r="D188" s="208" t="s">
+      <c r="D188" s="193" t="s">
+        <v>244</v>
+      </c>
+      <c r="E188" s="164">
+        <v>1</v>
+      </c>
+      <c r="F188" s="162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="H188" s="162" t="s">
+        <v>213</v>
+      </c>
+      <c r="I188" s="162" t="s">
+        <v>214</v>
+      </c>
+      <c r="J188" s="162" t="s">
+        <v>75</v>
+      </c>
+      <c r="K188" s="164"/>
+      <c r="L188" s="162" t="s">
         <v>245</v>
       </c>
-      <c r="E188" s="175">
-        <v>1</v>
-      </c>
-      <c r="F188" s="173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="H188" s="173" t="s">
-        <v>213</v>
-      </c>
-      <c r="I188" s="173" t="s">
-        <v>214</v>
-      </c>
-      <c r="J188" s="173" t="s">
-        <v>75</v>
-      </c>
-      <c r="K188" s="175"/>
-      <c r="L188" s="173" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="134" t="s">
         <v>206</v>
       </c>
@@ -9646,10 +9643,10 @@
       <c r="F189" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="G189" s="177" t="s">
+      <c r="G189" s="166" t="s">
         <v>15</v>
       </c>
-      <c r="H189" s="178" t="s">
+      <c r="H189" s="167" t="s">
         <v>215</v>
       </c>
       <c r="I189" s="111" t="s">
@@ -9663,7 +9660,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="134" t="s">
         <v>206</v>
       </c>
@@ -9682,10 +9679,10 @@
       <c r="F190" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G190" s="179" t="s">
+      <c r="G190" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="H190" s="180" t="s">
+      <c r="H190" s="169" t="s">
         <v>218</v>
       </c>
       <c r="I190" s="13" t="s">
@@ -9699,7 +9696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="134" t="s">
         <v>206</v>
       </c>
@@ -9718,7 +9715,7 @@
       <c r="F191" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="G191" s="177" t="s">
+      <c r="G191" s="166" t="s">
         <v>15</v>
       </c>
       <c r="H191" s="111" t="s">
@@ -9735,7 +9732,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="134" t="s">
         <v>206</v>
       </c>
@@ -9751,11 +9748,11 @@
       <c r="E192" s="75">
         <v>1.5</v>
       </c>
-      <c r="F192" s="161" t="s">
+      <c r="F192" s="152" t="s">
         <v>192</v>
       </c>
-      <c r="G192" s="181" t="s">
-        <v>242</v>
+      <c r="G192" s="170" t="s">
+        <v>241</v>
       </c>
       <c r="H192" s="73" t="s">
         <v>220</v>
@@ -9772,11 +9769,11 @@
       <c r="L192" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M192" s="203" t="s">
+      <c r="M192" s="221" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="134" t="s">
         <v>206</v>
       </c>
@@ -9789,14 +9786,14 @@
       <c r="D193" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E193" s="182" t="s">
+      <c r="E193" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="F193" s="162" t="s">
+      <c r="F193" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="G193" s="181" t="s">
-        <v>242</v>
+      <c r="G193" s="170" t="s">
+        <v>241</v>
       </c>
       <c r="H193" s="73" t="s">
         <v>220</v>
@@ -9813,9 +9810,9 @@
       <c r="L193" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M193" s="203"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M193" s="221"/>
+    </row>
+    <row r="194" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="134" t="s">
         <v>206</v>
       </c>
@@ -9828,14 +9825,14 @@
       <c r="D194" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="E194" s="182" t="s">
+      <c r="E194" s="171" t="s">
         <v>116</v>
       </c>
-      <c r="F194" s="162" t="s">
+      <c r="F194" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="G194" s="181" t="s">
-        <v>242</v>
+      <c r="G194" s="170" t="s">
+        <v>241</v>
       </c>
       <c r="H194" s="73" t="s">
         <v>220</v>
@@ -9852,9 +9849,9 @@
       <c r="L194" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M194" s="203"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M194" s="221"/>
+    </row>
+    <row r="195" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="134" t="s">
         <v>206</v>
       </c>
@@ -9865,7 +9862,7 @@
         <v>46094</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E195" s="62">
         <v>1.5</v>
@@ -9888,11 +9885,11 @@
       <c r="K195" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="L195" s="150" t="s">
+      <c r="L195" s="214" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="134" t="s">
         <v>206</v>
       </c>
@@ -9903,7 +9900,7 @@
         <v>46094</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E196" s="64">
         <v>1.5</v>
@@ -9926,9 +9923,9 @@
       <c r="K196" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L196" s="151"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L196" s="215"/>
+    </row>
+    <row r="197" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="134" t="s">
         <v>206</v>
       </c>
@@ -9939,7 +9936,7 @@
         <v>46094</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E197" s="64">
         <v>1.5</v>
@@ -9962,9 +9959,9 @@
       <c r="K197" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L197" s="151"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L197" s="215"/>
+    </row>
+    <row r="198" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="134" t="s">
         <v>206</v>
       </c>
@@ -9975,7 +9972,7 @@
         <v>46094</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E198" s="64">
         <v>1.5</v>
@@ -9998,9 +9995,9 @@
       <c r="K198" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L198" s="151"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L198" s="215"/>
+    </row>
+    <row r="199" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="134" t="s">
         <v>206</v>
       </c>
@@ -10011,7 +10008,7 @@
         <v>46094</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E199" s="64">
         <v>1.5</v>
@@ -10034,9 +10031,9 @@
       <c r="K199" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L199" s="151"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L199" s="215"/>
+    </row>
+    <row r="200" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="134" t="s">
         <v>206</v>
       </c>
@@ -10047,7 +10044,7 @@
         <v>46094</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E200" s="64">
         <v>1.5</v>
@@ -10070,9 +10067,9 @@
       <c r="K200" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L200" s="151"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L200" s="215"/>
+    </row>
+    <row r="201" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="134" t="s">
         <v>206</v>
       </c>
@@ -10083,7 +10080,7 @@
         <v>46094</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E201" s="64">
         <v>1.5</v>
@@ -10106,9 +10103,9 @@
       <c r="K201" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L201" s="151"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L201" s="215"/>
+    </row>
+    <row r="202" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="134" t="s">
         <v>206</v>
       </c>
@@ -10119,7 +10116,7 @@
         <v>46094</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E202" s="64">
         <v>1.5</v>
@@ -10142,9 +10139,9 @@
       <c r="K202" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L202" s="151"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L202" s="215"/>
+    </row>
+    <row r="203" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="134" t="s">
         <v>206</v>
       </c>
@@ -10155,7 +10152,7 @@
         <v>46094</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E203" s="65">
         <v>1.5</v>
@@ -10178,28 +10175,28 @@
       <c r="K203" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="L203" s="152"/>
-    </row>
-    <row r="204" spans="1:13" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="209" t="s">
+      <c r="L203" s="217"/>
+    </row>
+    <row r="204" spans="1:13" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="194" t="s">
         <v>206</v>
       </c>
-      <c r="B204" s="183" t="s">
+      <c r="B204" s="172" t="s">
         <v>46</v>
       </c>
-      <c r="C204" s="184">
+      <c r="C204" s="173">
         <v>46094</v>
       </c>
-      <c r="D204" s="185" t="s">
+      <c r="D204" s="174" t="s">
         <v>222</v>
       </c>
-      <c r="E204" s="186">
+      <c r="E204" s="175">
         <v>2</v>
       </c>
-      <c r="F204" s="183" t="s">
+      <c r="F204" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="G204" s="187" t="s">
+      <c r="G204" s="176" t="s">
         <v>100</v>
       </c>
       <c r="H204" s="87" t="s">
@@ -10214,11 +10211,11 @@
       <c r="K204" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="L204" s="205" t="s">
+      <c r="L204" s="192" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="63" t="s">
         <v>226</v>
       </c>
@@ -10256,7 +10253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="63" t="s">
         <v>226</v>
       </c>
@@ -10294,7 +10291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="63" t="s">
         <v>226</v>
       </c>
@@ -10332,7 +10329,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="63" t="s">
         <v>226</v>
       </c>
@@ -10370,7 +10367,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="63" t="s">
         <v>226</v>
       </c>
@@ -10408,7 +10405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="63" t="s">
         <v>226</v>
       </c>
@@ -10446,7 +10443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="63" t="s">
         <v>226</v>
       </c>
@@ -10484,7 +10481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="63" t="s">
         <v>226</v>
       </c>
@@ -10522,7 +10519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="63" t="s">
         <v>226</v>
       </c>
@@ -10560,18 +10557,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="B214" s="188" t="s">
+      <c r="B214" s="177" t="s">
         <v>50</v>
       </c>
       <c r="C214" s="49">
         <v>46097</v>
       </c>
-      <c r="D214" s="210" t="s">
-        <v>248</v>
+      <c r="D214" s="195" t="s">
+        <v>247</v>
       </c>
       <c r="E214" s="50" t="s">
         <v>78</v>
@@ -10579,10 +10576,10 @@
       <c r="F214" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G214" s="211" t="s">
-        <v>247</v>
-      </c>
-      <c r="H214" s="189" t="s">
+      <c r="G214" s="196" t="s">
+        <v>246</v>
+      </c>
+      <c r="H214" s="178" t="s">
         <v>228</v>
       </c>
       <c r="I214" s="48" t="s">
@@ -10598,7 +10595,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" s="63" t="s">
         <v>226</v>
       </c>
@@ -10620,7 +10617,7 @@
       <c r="G215" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H215" s="168" t="s">
+      <c r="H215" s="157" t="s">
         <v>230</v>
       </c>
       <c r="I215" s="11" t="s">
@@ -10636,7 +10633,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="63" t="s">
         <v>226</v>
       </c>
@@ -10658,7 +10655,7 @@
       <c r="G216" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H216" s="168" t="s">
+      <c r="H216" s="157" t="s">
         <v>208</v>
       </c>
       <c r="I216" s="11" t="s">
@@ -10674,7 +10671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A217" s="63" t="s">
         <v>226</v>
       </c>
@@ -10696,7 +10693,7 @@
       <c r="G217" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H217" s="168" t="s">
+      <c r="H217" s="157" t="s">
         <v>208</v>
       </c>
       <c r="I217" s="11" t="s">
@@ -10712,7 +10709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A218" s="63" t="s">
         <v>226</v>
       </c>
@@ -10734,7 +10731,7 @@
       <c r="G218" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H218" s="168" t="s">
+      <c r="H218" s="157" t="s">
         <v>208</v>
       </c>
       <c r="I218" s="11" t="s">
@@ -10750,7 +10747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="63" t="s">
         <v>226</v>
       </c>
@@ -10772,7 +10769,7 @@
       <c r="G219" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H219" s="168" t="s">
+      <c r="H219" s="157" t="s">
         <v>208</v>
       </c>
       <c r="I219" s="11" t="s">
@@ -10788,7 +10785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="63" t="s">
         <v>226</v>
       </c>
@@ -10826,7 +10823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="63" t="s">
         <v>226</v>
       </c>
@@ -10864,7 +10861,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="63" t="s">
         <v>226</v>
       </c>
@@ -10902,7 +10899,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="63" t="s">
         <v>226</v>
       </c>
@@ -10940,7 +10937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="63" t="s">
         <v>226</v>
       </c>
@@ -10978,7 +10975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="63" t="s">
         <v>226</v>
       </c>
@@ -11016,7 +11013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="63" t="s">
         <v>226</v>
       </c>
@@ -11054,7 +11051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="63" t="s">
         <v>226</v>
       </c>
@@ -11092,7 +11089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="63" t="s">
         <v>226</v>
       </c>
@@ -11130,15 +11127,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="63" t="s">
         <v>226</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C229" s="190" t="s">
-        <v>232</v>
+      <c r="C229" s="112">
+        <v>46100</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>55</v>
@@ -11153,7 +11150,7 @@
         <v>15</v>
       </c>
       <c r="H229" s="117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I229" s="9" t="s">
         <v>44</v>
@@ -11166,7 +11163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="63" t="s">
         <v>226</v>
       </c>
@@ -11185,11 +11182,11 @@
       <c r="F230" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="G230" s="177" t="s">
+      <c r="G230" s="166" t="s">
         <v>15</v>
       </c>
       <c r="H230" s="111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I230" s="111" t="s">
         <v>216</v>
@@ -11202,7 +11199,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="63" t="s">
         <v>226</v>
       </c>
@@ -11213,7 +11210,7 @@
         <v>46100</v>
       </c>
       <c r="D231" s="112" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E231" s="114">
         <v>1</v>
@@ -11221,11 +11218,11 @@
       <c r="F231" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="G231" s="177" t="s">
+      <c r="G231" s="166" t="s">
         <v>15</v>
       </c>
       <c r="H231" s="111" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I231" s="111" t="s">
         <v>216</v>
@@ -11238,7 +11235,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="63" t="s">
         <v>226</v>
       </c>
@@ -11249,7 +11246,7 @@
         <v>46100</v>
       </c>
       <c r="D232" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E232" s="95">
         <v>1</v>
@@ -11257,11 +11254,11 @@
       <c r="F232" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G232" s="179" t="s">
+      <c r="G232" s="168" t="s">
         <v>15</v>
       </c>
-      <c r="H232" s="180" t="s">
-        <v>238</v>
+      <c r="H232" s="169" t="s">
+        <v>237</v>
       </c>
       <c r="I232" s="13" t="s">
         <v>57</v>
@@ -11274,7 +11271,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="63" t="s">
         <v>226</v>
       </c>
@@ -11290,14 +11287,14 @@
       <c r="E233" s="75">
         <v>1.5</v>
       </c>
-      <c r="F233" s="161" t="s">
+      <c r="F233" s="152" t="s">
         <v>192</v>
       </c>
-      <c r="G233" s="191" t="s">
-        <v>243</v>
+      <c r="G233" s="179" t="s">
+        <v>242</v>
       </c>
       <c r="H233" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I233" s="14" t="s">
         <v>48</v>
@@ -11311,11 +11308,11 @@
       <c r="L233" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M233" s="203" t="s">
+      <c r="M233" s="221" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="63" t="s">
         <v>226</v>
       </c>
@@ -11331,14 +11328,14 @@
       <c r="E234" s="75">
         <v>1.5</v>
       </c>
-      <c r="F234" s="162" t="s">
+      <c r="F234" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="G234" s="191" t="s">
-        <v>243</v>
+      <c r="G234" s="179" t="s">
+        <v>242</v>
       </c>
       <c r="H234" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I234" s="10" t="s">
         <v>48</v>
@@ -11352,9 +11349,9 @@
       <c r="L234" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M234" s="203"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M234" s="221"/>
+    </row>
+    <row r="235" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="63" t="s">
         <v>226</v>
       </c>
@@ -11370,14 +11367,14 @@
       <c r="E235" s="75">
         <v>1.5</v>
       </c>
-      <c r="F235" s="162" t="s">
+      <c r="F235" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="G235" s="191" t="s">
-        <v>243</v>
+      <c r="G235" s="179" t="s">
+        <v>242</v>
       </c>
       <c r="H235" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I235" s="10" t="s">
         <v>48</v>
@@ -11391,9 +11388,9 @@
       <c r="L235" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="M235" s="203"/>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M235" s="221"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="63" t="s">
         <v>226</v>
       </c>
@@ -11404,7 +11401,7 @@
         <v>46101</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E236" s="64">
         <v>1.5</v>
@@ -11416,7 +11413,7 @@
         <v>19</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I236" s="18" t="s">
         <v>20</v>
@@ -11424,14 +11421,14 @@
       <c r="J236" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K236" s="192" t="s">
-        <v>22</v>
-      </c>
-      <c r="L236" s="206" t="s">
+      <c r="K236" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L236" s="218" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="63" t="s">
         <v>226</v>
       </c>
@@ -11442,7 +11439,7 @@
         <v>46101</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E237" s="64">
         <v>1.5</v>
@@ -11454,7 +11451,7 @@
         <v>24</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I237" s="18" t="s">
         <v>20</v>
@@ -11462,12 +11459,12 @@
       <c r="J237" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K237" s="192" t="s">
-        <v>22</v>
-      </c>
-      <c r="L237" s="207"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K237" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L237" s="219"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="63" t="s">
         <v>226</v>
       </c>
@@ -11478,7 +11475,7 @@
         <v>46101</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E238" s="64">
         <v>1.5</v>
@@ -11490,7 +11487,7 @@
         <v>26</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I238" s="18" t="s">
         <v>20</v>
@@ -11498,12 +11495,12 @@
       <c r="J238" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K238" s="192" t="s">
-        <v>22</v>
-      </c>
-      <c r="L238" s="207"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K238" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L238" s="219"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="63" t="s">
         <v>226</v>
       </c>
@@ -11514,7 +11511,7 @@
         <v>46101</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E239" s="64">
         <v>1.5</v>
@@ -11526,7 +11523,7 @@
         <v>27</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I239" s="18" t="s">
         <v>20</v>
@@ -11534,12 +11531,12 @@
       <c r="J239" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K239" s="192" t="s">
-        <v>22</v>
-      </c>
-      <c r="L239" s="207"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K239" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L239" s="219"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="63" t="s">
         <v>226</v>
       </c>
@@ -11550,7 +11547,7 @@
         <v>46101</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E240" s="64">
         <v>1.5</v>
@@ -11562,7 +11559,7 @@
         <v>28</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I240" s="18" t="s">
         <v>20</v>
@@ -11570,12 +11567,12 @@
       <c r="J240" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K240" s="192" t="s">
-        <v>22</v>
-      </c>
-      <c r="L240" s="207"/>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K240" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L240" s="219"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="63" t="s">
         <v>226</v>
       </c>
@@ -11586,7 +11583,7 @@
         <v>46101</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E241" s="64">
         <v>1.5</v>
@@ -11598,7 +11595,7 @@
         <v>30</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I241" s="18" t="s">
         <v>20</v>
@@ -11606,12 +11603,12 @@
       <c r="J241" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K241" s="192" t="s">
-        <v>22</v>
-      </c>
-      <c r="L241" s="207"/>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K241" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L241" s="219"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="63" t="s">
         <v>226</v>
       </c>
@@ -11622,7 +11619,7 @@
         <v>46101</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E242" s="64">
         <v>1.5</v>
@@ -11634,7 +11631,7 @@
         <v>32</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I242" s="18" t="s">
         <v>20</v>
@@ -11642,23 +11639,23 @@
       <c r="J242" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K242" s="192" t="s">
-        <v>22</v>
-      </c>
-      <c r="L242" s="207"/>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K242" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L242" s="219"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="B243" s="193" t="s">
+      <c r="B243" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="C243" s="194">
+      <c r="C243" s="182">
         <v>46101</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E243" s="65">
         <v>1.5</v>
@@ -11670,7 +11667,7 @@
         <v>34</v>
       </c>
       <c r="H243" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I243" s="18" t="s">
         <v>20</v>
@@ -11678,50 +11675,50 @@
       <c r="J243" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="K243" s="195" t="s">
-        <v>22</v>
-      </c>
-      <c r="L243" s="207"/>
-    </row>
-    <row r="244" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="200" t="s">
+      <c r="K243" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="L243" s="219"/>
+    </row>
+    <row r="244" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="188" t="s">
         <v>226</v>
       </c>
-      <c r="B244" s="227" t="s">
+      <c r="B244" s="206" t="s">
         <v>46</v>
       </c>
       <c r="C244" s="121">
         <v>46101</v>
       </c>
-      <c r="D244" s="197" t="s">
-        <v>244</v>
-      </c>
-      <c r="E244" s="198">
+      <c r="D244" s="185" t="s">
+        <v>243</v>
+      </c>
+      <c r="E244" s="186">
         <v>1.5</v>
       </c>
-      <c r="F244" s="199" t="s">
+      <c r="F244" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="G244" s="197" t="s">
+      <c r="G244" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="H244" s="199" t="s">
-        <v>241</v>
-      </c>
-      <c r="I244" s="199" t="s">
-        <v>20</v>
-      </c>
-      <c r="J244" s="199" t="s">
+      <c r="H244" s="187" t="s">
+        <v>240</v>
+      </c>
+      <c r="I244" s="187" t="s">
+        <v>20</v>
+      </c>
+      <c r="J244" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="K244" s="200" t="s">
-        <v>22</v>
-      </c>
-      <c r="L244" s="228"/>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K244" s="188" t="s">
+        <v>22</v>
+      </c>
+      <c r="L244" s="220"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>50</v>
@@ -11742,7 +11739,7 @@
         <v>19</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I245" s="6" t="s">
         <v>20</v>
@@ -11757,9 +11754,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B246" s="40" t="s">
         <v>50</v>
@@ -11780,7 +11777,7 @@
         <v>24</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I246" s="7" t="s">
         <v>20</v>
@@ -11795,9 +11792,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B247" s="40" t="s">
         <v>50</v>
@@ -11818,7 +11815,7 @@
         <v>26</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I247" s="7" t="s">
         <v>20</v>
@@ -11833,9 +11830,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248" s="40" t="s">
         <v>50</v>
@@ -11856,7 +11853,7 @@
         <v>27</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I248" s="7" t="s">
         <v>20</v>
@@ -11871,9 +11868,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="40" t="s">
         <v>50</v>
@@ -11894,7 +11891,7 @@
         <v>28</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I249" s="7" t="s">
         <v>20</v>
@@ -11909,9 +11906,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B250" s="40" t="s">
         <v>50</v>
@@ -11932,7 +11929,7 @@
         <v>30</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I250" s="7" t="s">
         <v>20</v>
@@ -11947,9 +11944,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="40" t="s">
         <v>50</v>
@@ -11970,7 +11967,7 @@
         <v>32</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I251" s="7" t="s">
         <v>20</v>
@@ -11985,9 +11982,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252" s="40" t="s">
         <v>50</v>
@@ -12008,7 +12005,7 @@
         <v>34</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I252" s="7" t="s">
         <v>20</v>
@@ -12023,9 +12020,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B253" s="40" t="s">
         <v>50</v>
@@ -12046,7 +12043,7 @@
         <v>94</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I253" s="7" t="s">
         <v>20</v>
@@ -12061,69 +12058,69 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A254" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B254" s="212" t="s">
+        <v>249</v>
+      </c>
+      <c r="B254" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="C254" s="213">
+      <c r="C254" s="224">
         <v>46105</v>
       </c>
-      <c r="D254" s="214" t="s">
+      <c r="D254" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="E254" s="215"/>
-      <c r="F254" s="216" t="s">
+      <c r="E254" s="198"/>
+      <c r="F254" s="199" t="s">
+        <v>268</v>
+      </c>
+      <c r="G254" s="222" t="s">
         <v>269</v>
       </c>
-      <c r="G254" s="212" t="s">
+      <c r="H254" s="226" t="s">
+        <v>272</v>
+      </c>
+      <c r="I254" s="222" t="s">
+        <v>251</v>
+      </c>
+      <c r="J254" s="222" t="s">
+        <v>252</v>
+      </c>
+      <c r="K254" s="222" t="s">
+        <v>22</v>
+      </c>
+      <c r="L254" s="222" t="s">
+        <v>64</v>
+      </c>
+      <c r="M254" s="216" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A255" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B255" s="223"/>
+      <c r="C255" s="225"/>
+      <c r="D255" s="197" t="s">
+        <v>187</v>
+      </c>
+      <c r="E255" s="198"/>
+      <c r="F255" s="199" t="s">
         <v>270</v>
       </c>
-      <c r="H254" s="217" t="s">
-        <v>273</v>
-      </c>
-      <c r="I254" s="212" t="s">
-        <v>252</v>
-      </c>
-      <c r="J254" s="212" t="s">
-        <v>253</v>
-      </c>
-      <c r="K254" s="212" t="s">
-        <v>22</v>
-      </c>
-      <c r="L254" s="212" t="s">
-        <v>64</v>
-      </c>
-      <c r="M254" s="163" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A255" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B255" s="218"/>
-      <c r="C255" s="219"/>
-      <c r="D255" s="214" t="s">
-        <v>187</v>
-      </c>
-      <c r="E255" s="215"/>
-      <c r="F255" s="216" t="s">
-        <v>271</v>
-      </c>
-      <c r="G255" s="218"/>
-      <c r="H255" s="220"/>
-      <c r="I255" s="218"/>
-      <c r="J255" s="218"/>
-      <c r="K255" s="218"/>
-      <c r="L255" s="218"/>
-      <c r="M255" s="163"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G255" s="223"/>
+      <c r="H255" s="227"/>
+      <c r="I255" s="223"/>
+      <c r="J255" s="223"/>
+      <c r="K255" s="223"/>
+      <c r="L255" s="223"/>
+      <c r="M255" s="216"/>
+    </row>
+    <row r="256" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B256" s="87" t="s">
         <v>12</v>
@@ -12131,35 +12128,35 @@
       <c r="C256" s="122">
         <v>46105</v>
       </c>
-      <c r="D256" s="171" t="s">
+      <c r="D256" s="160" t="s">
         <v>209</v>
       </c>
-      <c r="E256" s="170" t="s">
+      <c r="E256" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="F256" s="171" t="s">
+      <c r="F256" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="G256" s="221" t="s">
+      <c r="G256" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="H256" s="169" t="s">
-        <v>272</v>
+      <c r="H256" s="158" t="s">
+        <v>271</v>
       </c>
       <c r="I256" s="84"/>
       <c r="J256" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="K256" s="170" t="s">
+      <c r="K256" s="159" t="s">
         <v>22</v>
       </c>
       <c r="L256" s="84" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>17</v>
@@ -12180,7 +12177,7 @@
         <v>19</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I257" s="7" t="s">
         <v>20</v>
@@ -12195,9 +12192,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B258" s="7" t="s">
         <v>17</v>
@@ -12218,7 +12215,7 @@
         <v>24</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I258" s="7" t="s">
         <v>20</v>
@@ -12233,9 +12230,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>17</v>
@@ -12256,7 +12253,7 @@
         <v>26</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I259" s="7" t="s">
         <v>20</v>
@@ -12271,9 +12268,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>17</v>
@@ -12294,7 +12291,7 @@
         <v>27</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I260" s="7" t="s">
         <v>20</v>
@@ -12309,9 +12306,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>17</v>
@@ -12332,7 +12329,7 @@
         <v>28</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I261" s="7" t="s">
         <v>20</v>
@@ -12347,9 +12344,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>17</v>
@@ -12370,7 +12367,7 @@
         <v>30</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I262" s="7" t="s">
         <v>20</v>
@@ -12385,9 +12382,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>17</v>
@@ -12408,7 +12405,7 @@
         <v>32</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I263" s="7" t="s">
         <v>20</v>
@@ -12423,9 +12420,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>17</v>
@@ -12446,7 +12443,7 @@
         <v>34</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I264" s="7" t="s">
         <v>20</v>
@@ -12461,9 +12458,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>17</v>
@@ -12484,7 +12481,7 @@
         <v>94</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I265" s="7" t="s">
         <v>20</v>
@@ -12499,9 +12496,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B266" s="14" t="s">
         <v>17</v>
@@ -12510,7 +12507,7 @@
         <v>46106</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E266" s="110">
         <v>1</v>
@@ -12522,13 +12519,13 @@
         <v>15</v>
       </c>
       <c r="H266" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I266" s="14" t="s">
         <v>53</v>
       </c>
       <c r="J266" s="81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K266" s="110" t="s">
         <v>22</v>
@@ -12537,47 +12534,47 @@
         <v>133</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="B267" s="222" t="s">
+      <c r="B267" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="C267" s="223">
+      <c r="C267" s="202">
         <v>46106</v>
       </c>
-      <c r="D267" s="224" t="s">
+      <c r="D267" s="203" t="s">
         <v>68</v>
       </c>
-      <c r="E267" s="225" t="s">
+      <c r="E267" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="F267" s="222" t="s">
+      <c r="F267" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="G267" s="226" t="s">
+      <c r="G267" s="205" t="s">
         <v>100</v>
       </c>
-      <c r="H267" s="222" t="s">
+      <c r="H267" s="201" t="s">
+        <v>257</v>
+      </c>
+      <c r="I267" s="201" t="s">
         <v>258</v>
       </c>
-      <c r="I267" s="222" t="s">
+      <c r="J267" s="201" t="s">
+        <v>38</v>
+      </c>
+      <c r="K267" s="204" t="s">
+        <v>22</v>
+      </c>
+      <c r="L267" s="201" t="s">
         <v>259</v>
       </c>
-      <c r="J267" s="222" t="s">
-        <v>38</v>
-      </c>
-      <c r="K267" s="225" t="s">
-        <v>22</v>
-      </c>
-      <c r="L267" s="222" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B268" s="111" t="s">
         <v>39</v>
@@ -12598,7 +12595,7 @@
         <v>15</v>
       </c>
       <c r="H268" s="111" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I268" s="111" t="s">
         <v>216</v>
@@ -12611,9 +12608,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B269" s="13" t="s">
         <v>39</v>
@@ -12633,8 +12630,8 @@
       <c r="G269" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H269" s="180" t="s">
-        <v>262</v>
+      <c r="H269" s="169" t="s">
+        <v>261</v>
       </c>
       <c r="I269" s="13" t="s">
         <v>57</v>
@@ -12647,9 +12644,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B270" s="84" t="s">
         <v>39</v>
@@ -12660,7 +12657,7 @@
       <c r="D270" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="E270" s="170">
+      <c r="E270" s="159">
         <v>1</v>
       </c>
       <c r="F270" s="84" t="s">
@@ -12669,8 +12666,8 @@
       <c r="G270" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="H270" s="171" t="s">
-        <v>263</v>
+      <c r="H270" s="160" t="s">
+        <v>262</v>
       </c>
       <c r="I270" s="84" t="s">
         <v>137</v>
@@ -12678,14 +12675,14 @@
       <c r="J270" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="K270" s="170"/>
+      <c r="K270" s="159"/>
       <c r="L270" s="84" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>39</v>
@@ -12694,7 +12691,7 @@
         <v>46107</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E271" s="61">
         <v>1</v>
@@ -12706,7 +12703,7 @@
         <v>15</v>
       </c>
       <c r="H271" s="117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I271" s="9" t="s">
         <v>44</v>
@@ -12719,9 +12716,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B272" s="10" t="s">
         <v>46</v>
@@ -12742,7 +12739,7 @@
         <v>58</v>
       </c>
       <c r="H272" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I272" s="10" t="s">
         <v>53</v>
@@ -12757,9 +12754,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B273" s="10" t="s">
         <v>46</v>
@@ -12780,7 +12777,7 @@
         <v>58</v>
       </c>
       <c r="H273" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I273" s="10" t="s">
         <v>53</v>
@@ -12795,9 +12792,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>46</v>
@@ -12806,7 +12803,7 @@
         <v>46108</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E274" s="39">
         <v>1.5</v>
@@ -12818,7 +12815,7 @@
         <v>19</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I274" s="18" t="s">
         <v>20</v>
@@ -12829,13 +12826,13 @@
       <c r="K274" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L274" s="150" t="s">
+      <c r="L274" s="214" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B275" s="7" t="s">
         <v>46</v>
@@ -12844,7 +12841,7 @@
         <v>46108</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E275" s="39">
         <v>1.5</v>
@@ -12856,7 +12853,7 @@
         <v>24</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I275" s="18" t="s">
         <v>20</v>
@@ -12867,11 +12864,11 @@
       <c r="K275" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L275" s="151"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L275" s="215"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>46</v>
@@ -12880,7 +12877,7 @@
         <v>46108</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E276" s="39">
         <v>1.5</v>
@@ -12892,7 +12889,7 @@
         <v>26</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I276" s="18" t="s">
         <v>20</v>
@@ -12903,11 +12900,11 @@
       <c r="K276" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L276" s="151"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L276" s="215"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>46</v>
@@ -12916,7 +12913,7 @@
         <v>46108</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E277" s="39">
         <v>1.5</v>
@@ -12928,7 +12925,7 @@
         <v>27</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I277" s="18" t="s">
         <v>20</v>
@@ -12939,11 +12936,11 @@
       <c r="K277" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L277" s="151"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L277" s="215"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>46</v>
@@ -12952,7 +12949,7 @@
         <v>46108</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E278" s="39">
         <v>1.5</v>
@@ -12964,7 +12961,7 @@
         <v>28</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I278" s="18" t="s">
         <v>20</v>
@@ -12975,11 +12972,11 @@
       <c r="K278" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L278" s="151"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L278" s="215"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>46</v>
@@ -12988,7 +12985,7 @@
         <v>46108</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E279" s="39">
         <v>1.5</v>
@@ -13000,7 +12997,7 @@
         <v>30</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I279" s="18" t="s">
         <v>20</v>
@@ -13011,11 +13008,11 @@
       <c r="K279" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L279" s="151"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L279" s="215"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>46</v>
@@ -13024,7 +13021,7 @@
         <v>46108</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E280" s="39">
         <v>1.5</v>
@@ -13036,7 +13033,7 @@
         <v>32</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I280" s="18" t="s">
         <v>20</v>
@@ -13047,20 +13044,20 @@
       <c r="K280" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L280" s="151"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L280" s="215"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B281" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C281" s="194">
+      <c r="C281" s="182">
         <v>46108</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E281" s="39">
         <v>1.5</v>
@@ -13072,7 +13069,7 @@
         <v>34</v>
       </c>
       <c r="H281" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I281" s="18" t="s">
         <v>20</v>
@@ -13083,11 +13080,11 @@
       <c r="K281" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L281" s="151"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L281" s="215"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B282" s="7" t="s">
         <v>46</v>
@@ -13096,7 +13093,7 @@
         <v>46108</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E282" s="39">
         <v>1.5</v>
@@ -13108,7 +13105,7 @@
         <v>94</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I282" s="18" t="s">
         <v>20</v>
@@ -13119,85 +13116,85 @@
       <c r="K282" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L282" s="151"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A283" s="202" t="s">
-        <v>250</v>
-      </c>
-      <c r="B283" s="229" t="s">
+      <c r="L282" s="215"/>
+    </row>
+    <row r="283" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A283" s="190" t="s">
+        <v>249</v>
+      </c>
+      <c r="B283" s="207" t="s">
         <v>46</v>
       </c>
-      <c r="C283" s="230">
+      <c r="C283" s="208">
         <v>111851</v>
       </c>
-      <c r="D283" s="229" t="s">
+      <c r="D283" s="207" t="s">
         <v>68</v>
       </c>
-      <c r="E283" s="231">
+      <c r="E283" s="209">
         <v>1</v>
       </c>
-      <c r="F283" s="232" t="s">
+      <c r="F283" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="G283" s="233" t="s">
+      <c r="G283" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="H283" s="234" t="s">
+      <c r="H283" s="212" t="s">
+        <v>266</v>
+      </c>
+      <c r="I283" s="207" t="s">
+        <v>16</v>
+      </c>
+      <c r="J283" s="207" t="s">
+        <v>38</v>
+      </c>
+      <c r="K283" s="213" t="s">
+        <v>22</v>
+      </c>
+      <c r="L283" s="207" t="s">
         <v>267</v>
-      </c>
-      <c r="I283" s="229" t="s">
-        <v>16</v>
-      </c>
-      <c r="J283" s="229" t="s">
-        <v>38</v>
-      </c>
-      <c r="K283" s="235" t="s">
-        <v>22</v>
-      </c>
-      <c r="L283" s="229" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L20:L28"/>
+    <mergeCell ref="L67:L75"/>
+    <mergeCell ref="L110:L118"/>
+    <mergeCell ref="J254:J255"/>
+    <mergeCell ref="K254:K255"/>
+    <mergeCell ref="L254:L255"/>
+    <mergeCell ref="L155:L163"/>
+    <mergeCell ref="M50:M57"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="G254:G255"/>
+    <mergeCell ref="H254:H255"/>
+    <mergeCell ref="I254:I255"/>
     <mergeCell ref="L274:L282"/>
     <mergeCell ref="M254:M255"/>
     <mergeCell ref="L195:L203"/>
     <mergeCell ref="L236:L244"/>
     <mergeCell ref="M192:M194"/>
     <mergeCell ref="M233:M235"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="G254:G255"/>
-    <mergeCell ref="H254:H255"/>
-    <mergeCell ref="I254:I255"/>
-    <mergeCell ref="J254:J255"/>
-    <mergeCell ref="K254:K255"/>
-    <mergeCell ref="L254:L255"/>
-    <mergeCell ref="L155:L163"/>
-    <mergeCell ref="M50:M57"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L20:L28"/>
-    <mergeCell ref="L67:L75"/>
-    <mergeCell ref="L110:L118"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="M65:M66"/>
   </mergeCells>
+  <conditionalFormatting sqref="B268">
+    <cfRule type="timePeriod" dxfId="2" priority="1" timePeriod="lastMonth">
+      <formula>AND(MONTH(B268)=MONTH(EDATE(TODAY(),0-1)),YEAR(B268)=YEAR(EDATE(TODAY(),0-1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D150:D152">
-    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="1" priority="3" timePeriod="lastMonth">
       <formula>AND(MONTH(D150)=MONTH(EDATE(TODAY(),0-1)),YEAR(D150)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D231:D232">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="lastMonth">
       <formula>AND(MONTH(D231)=MONTH(EDATE(TODAY(),0-1)),YEAR(D231)=YEAR(EDATE(TODAY(),0-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B268">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
-      <formula>AND(MONTH(B268)=MONTH(EDATE(TODAY(),0-1)),YEAR(B268)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -13221,6 +13218,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b21d5a2b-3e07-44da-a913-d432e98126fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010023D18A5980A5EA4798C6AF28F7DA169B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7d4a025893b280d6362234f5a144361">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b21d5a2b-3e07-44da-a913-d432e98126fc" xmlns:ns4="a5732a7d-e174-4dfd-a0ab-9c3beefc0b53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b66aff2a3cf5b1cc0133fed208d53e9f" ns3:_="" ns4:_="">
     <xsd:import namespace="b21d5a2b-3e07-44da-a913-d432e98126fc"/>
@@ -13473,24 +13487,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49B55613-DF2C-4212-A9D9-4E572494A57D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a5732a7d-e174-4dfd-a0ab-9c3beefc0b53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b21d5a2b-3e07-44da-a913-d432e98126fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b21d5a2b-3e07-44da-a913-d432e98126fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF5A273-DEBE-4CF1-B4A9-BB7E3FB141D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB002D19-BA05-4352-92BC-244AE23CAA15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13507,29 +13529,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BF5A273-DEBE-4CF1-B4A9-BB7E3FB141D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49B55613-DF2C-4212-A9D9-4E572494A57D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a5732a7d-e174-4dfd-a0ab-9c3beefc0b53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b21d5a2b-3e07-44da-a913-d432e98126fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>